--- a/Analyses/S2_softRobots/t2_CAMs/outputs/01_dataPreperation/final/networkIndicators_combined_clean_final.xlsx
+++ b/Analyses/S2_softRobots/t2_CAMs/outputs/01_dataPreperation/final/networkIndicators_combined_clean_final.xlsx
@@ -3619,7 +3619,7 @@
         <v>0.5540657439446367</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6639416425497978</v>
+        <v>0.6639416425497984</v>
       </c>
       <c r="L2" t="n">
         <v>2.5</v>
@@ -3748,7 +3748,7 @@
         <v>0.5549242424242424</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6239337138699432</v>
+        <v>0.6239337138699431</v>
       </c>
       <c r="L3" t="n">
         <v>1.4137931034482758</v>
@@ -3877,7 +3877,7 @@
         <v>0.41983471074380163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5123849057548829</v>
+        <v>0.5123849057548828</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -4006,7 +4006,7 @@
         <v>0.571969696969697</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5689883197538618</v>
+        <v>0.5689883197538613</v>
       </c>
       <c r="L5" t="n">
         <v>1.6956521739130435</v>
@@ -4135,7 +4135,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5876751203535698</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L6" t="n">
         <v>1.0</v>
@@ -4659,7 +4659,7 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7311064553717899</v>
+        <v>0.73110645537179</v>
       </c>
       <c r="L10" t="n">
         <v>1.5833333333333333</v>
@@ -4788,7 +4788,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5463907883734862</v>
+        <v>0.5463907883734855</v>
       </c>
       <c r="L11" t="n">
         <v>1.75</v>
@@ -4925,7 +4925,7 @@
         <v>0.39551357733175924</v>
       </c>
       <c r="K12" t="n">
-        <v>0.583141035762565</v>
+        <v>0.5831410357625653</v>
       </c>
       <c r="L12" t="n">
         <v>1.8333333333333333</v>
@@ -5062,7 +5062,7 @@
         <v>0.6045364891518737</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7089184579677156</v>
+        <v>0.7089184579677154</v>
       </c>
       <c r="L13" t="n">
         <v>3.3125</v>
@@ -5320,7 +5320,7 @@
         <v>0.5957613814756672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6485997359573066</v>
+        <v>0.648599735957307</v>
       </c>
       <c r="L15" t="n">
         <v>2.3793103448275863</v>
@@ -5449,7 +5449,7 @@
         <v>0.5088757396449705</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6666137163722711</v>
+        <v>0.6666137163722708</v>
       </c>
       <c r="L16" t="n">
         <v>1.380952380952381</v>
@@ -5578,7 +5578,7 @@
         <v>0.7314814814814815</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7431858936322674</v>
+        <v>0.7431858936322675</v>
       </c>
       <c r="L17" t="n">
         <v>2.9375</v>
@@ -5836,7 +5836,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6589640700188711</v>
+        <v>0.6589640700188709</v>
       </c>
       <c r="L19" t="n">
         <v>1.4545454545454546</v>
@@ -5965,7 +5965,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L20" t="n">
         <v>1.5</v>
@@ -6360,7 +6360,7 @@
         <v>0.6306818181818182</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7150518630750043</v>
+        <v>0.7150518630750046</v>
       </c>
       <c r="L23" t="n">
         <v>1.6111111111111112</v>
@@ -6489,7 +6489,7 @@
         <v>0.47603305785123967</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5698561812512468</v>
+        <v>0.5698561812512466</v>
       </c>
       <c r="L24" t="n">
         <v>2.1379310344827585</v>
@@ -6618,7 +6618,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6969774225128944</v>
+        <v>0.6969774225128946</v>
       </c>
       <c r="L25" t="n">
         <v>2.3333333333333335</v>
@@ -6747,7 +6747,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5463907883734856</v>
+        <v>0.5463907883734854</v>
       </c>
       <c r="L26" t="n">
         <v>2.25</v>
@@ -6876,7 +6876,7 @@
         <v>0.4780319535221496</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7790594869655467</v>
+        <v>0.7790594869655469</v>
       </c>
       <c r="L27" t="n">
         <v>1.3548387096774193</v>
@@ -7013,7 +7013,7 @@
         <v>0.5170454545454546</v>
       </c>
       <c r="K28" t="n">
-        <v>0.597528297796752</v>
+        <v>0.5975282977967518</v>
       </c>
       <c r="L28" t="n">
         <v>2.739130434782609</v>
@@ -7150,7 +7150,7 @@
         <v>0.5955555555555555</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6557866581553321</v>
+        <v>0.6557866581553327</v>
       </c>
       <c r="L29" t="n">
         <v>1.3846153846153846</v>
@@ -7416,7 +7416,7 @@
         <v>0.5669191919191919</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6860648098775028</v>
+        <v>0.686064809877503</v>
       </c>
       <c r="L31" t="n">
         <v>1.619047619047619</v>
@@ -7545,7 +7545,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5879745215473362</v>
+        <v>0.5879745215473361</v>
       </c>
       <c r="L32" t="n">
         <v>1.6521739130434783</v>
@@ -7682,7 +7682,7 @@
         <v>0.5642105263157895</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7344728262044616</v>
+        <v>0.7344728262044619</v>
       </c>
       <c r="L33" t="n">
         <v>2.0821917808219177</v>
@@ -7948,7 +7948,7 @@
         <v>0.6743079584775087</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7165282052231965</v>
+        <v>0.7165282052231968</v>
       </c>
       <c r="L35" t="n">
         <v>3.311111111111111</v>
@@ -8077,7 +8077,7 @@
         <v>0.5707166179755971</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7706074640207375</v>
+        <v>0.7706074640207377</v>
       </c>
       <c r="L36" t="n">
         <v>1.7878787878787878</v>
@@ -8206,7 +8206,7 @@
         <v>0.5149136577708007</v>
       </c>
       <c r="K37" t="n">
-        <v>0.6151762894188576</v>
+        <v>0.6151762894188575</v>
       </c>
       <c r="L37" t="n">
         <v>1.434782608695652</v>
@@ -8335,7 +8335,7 @@
         <v>0.48148148148148145</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5275444087384663</v>
+        <v>0.5275444087384659</v>
       </c>
       <c r="L38" t="n">
         <v>1.3</v>
@@ -8730,7 +8730,7 @@
         <v>0.5119825708061002</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6982375941135746</v>
+        <v>0.6982375941135747</v>
       </c>
       <c r="L41" t="n">
         <v>1.8387096774193548</v>
@@ -8859,7 +8859,7 @@
         <v>0.5688888888888889</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6680090650144587</v>
+        <v>0.668009065014459</v>
       </c>
       <c r="L42" t="n">
         <v>2.1875</v>
@@ -8988,7 +8988,7 @@
         <v>0.15222222222222223</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3600236491383186</v>
+        <v>0.3600236491383182</v>
       </c>
       <c r="L43" t="n">
         <v>3.688888888888889</v>
@@ -9254,7 +9254,7 @@
         <v>0.5305785123966942</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6239577903951071</v>
+        <v>0.6239577903951072</v>
       </c>
       <c r="L45" t="n">
         <v>4.086956521739131</v>
@@ -9383,7 +9383,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L46" t="n">
         <v>1.8823529411764706</v>
@@ -9520,7 +9520,7 @@
         <v>0.6232741617357002</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7124784733822334</v>
+        <v>0.7124784733822332</v>
       </c>
       <c r="L47" t="n">
         <v>1.4090909090909092</v>
@@ -9649,7 +9649,7 @@
         <v>0.4740973312401884</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6105152539206348</v>
+        <v>0.6105152539206345</v>
       </c>
       <c r="L48" t="n">
         <v>3.0588235294117645</v>
@@ -9778,7 +9778,7 @@
         <v>0.5542406311637081</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5814868443938438</v>
+        <v>0.581486844393844</v>
       </c>
       <c r="L49" t="n">
         <v>2.6666666666666665</v>
@@ -10036,7 +10036,7 @@
         <v>0.3952020202020202</v>
       </c>
       <c r="K51" t="n">
-        <v>0.6741270607693665</v>
+        <v>0.6741270607693663</v>
       </c>
       <c r="L51" t="n">
         <v>2.840909090909091</v>
@@ -10165,7 +10165,7 @@
         <v>0.427651515151515</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5779846603424768</v>
+        <v>0.5779846603424769</v>
       </c>
       <c r="L52" t="n">
         <v>2.761904761904762</v>
@@ -10302,7 +10302,7 @@
         <v>0.41179496489953993</v>
       </c>
       <c r="K53" t="n">
-        <v>0.6884792154861872</v>
+        <v>0.6884792154861873</v>
       </c>
       <c r="L53" t="n">
         <v>3.073394495412844</v>
@@ -10431,7 +10431,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7503994041344023</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L54" t="n">
         <v>2.0833333333333335</v>
@@ -10568,7 +10568,7 @@
         <v>0.3685950413223141</v>
       </c>
       <c r="K55" t="n">
-        <v>0.4663492795201868</v>
+        <v>0.46634927952018657</v>
       </c>
       <c r="L55" t="n">
         <v>3.4074074074074074</v>
@@ -10697,7 +10697,7 @@
         <v>0.48444444444444446</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5361560968173987</v>
+        <v>0.5361560968173988</v>
       </c>
       <c r="L56" t="n">
         <v>4.0</v>
@@ -10826,7 +10826,7 @@
         <v>0.5207100591715976</v>
       </c>
       <c r="K57" t="n">
-        <v>0.7319858598225931</v>
+        <v>0.7319858598225935</v>
       </c>
       <c r="L57" t="n">
         <v>1.4705882352941178</v>
@@ -11092,7 +11092,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5463907883734855</v>
+        <v>0.5463907883734854</v>
       </c>
       <c r="L59" t="n">
         <v>2.6666666666666665</v>
@@ -11221,7 +11221,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L60" t="n">
         <v>3.2142857142857144</v>
@@ -11350,7 +11350,7 @@
         <v>0.7311616954474097</v>
       </c>
       <c r="K61" t="n">
-        <v>0.7783152414918432</v>
+        <v>0.7783152414918433</v>
       </c>
       <c r="L61" t="n">
         <v>2.2</v>
@@ -11487,7 +11487,7 @@
         <v>0.47008547008547</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6940693357949077</v>
+        <v>0.694069335794908</v>
       </c>
       <c r="L62" t="n">
         <v>1.6</v>
@@ -11624,7 +11624,7 @@
         <v>0.5631313131313131</v>
       </c>
       <c r="K63" t="n">
-        <v>0.6715310873992878</v>
+        <v>0.6715310873992876</v>
       </c>
       <c r="L63" t="n">
         <v>1.7142857142857142</v>
@@ -11753,7 +11753,7 @@
         <v>0.41792929292929293</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5011924623437797</v>
+        <v>0.5011924623437802</v>
       </c>
       <c r="L64" t="n">
         <v>2.05</v>
@@ -12019,7 +12019,7 @@
         <v>0.6654040404040404</v>
       </c>
       <c r="K66" t="n">
-        <v>0.7635469567479611</v>
+        <v>0.763546956747961</v>
       </c>
       <c r="L66" t="n">
         <v>2.8275862068965516</v>
@@ -12148,7 +12148,7 @@
         <v>0.4190778533635676</v>
       </c>
       <c r="K67" t="n">
-        <v>0.6431167773064643</v>
+        <v>0.6431167773064638</v>
       </c>
       <c r="L67" t="n">
         <v>5.260416666666667</v>
@@ -12277,7 +12277,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5876751203535706</v>
+        <v>0.58767512035357</v>
       </c>
       <c r="L68" t="n">
         <v>1.8235294117647058</v>
@@ -12414,7 +12414,7 @@
         <v>0.5443786982248521</v>
       </c>
       <c r="K69" t="n">
-        <v>0.594164149871912</v>
+        <v>0.5941641498719119</v>
       </c>
       <c r="L69" t="n">
         <v>1.4285714285714286</v>
@@ -12543,7 +12543,7 @@
         <v>0.6088888888888889</v>
       </c>
       <c r="K70" t="n">
-        <v>0.6533878071413063</v>
+        <v>0.6533878071413056</v>
       </c>
       <c r="L70" t="n">
         <v>1.1666666666666667</v>
@@ -12680,7 +12680,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K71" t="n">
-        <v>0.7072557308151466</v>
+        <v>0.7072557308151463</v>
       </c>
       <c r="L71" t="n">
         <v>2.138888888888889</v>
@@ -12946,7 +12946,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6834720486951733</v>
+        <v>0.6834720486951734</v>
       </c>
       <c r="L73" t="n">
         <v>1.6956521739130435</v>
@@ -13075,7 +13075,7 @@
         <v>0.5309343434343434</v>
       </c>
       <c r="K74" t="n">
-        <v>0.6724191809139016</v>
+        <v>0.6724191809139017</v>
       </c>
       <c r="L74" t="n">
         <v>3.2790697674418605</v>
@@ -13212,7 +13212,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="K75" t="n">
-        <v>0.7204348544233159</v>
+        <v>0.7204348544233162</v>
       </c>
       <c r="L75" t="n">
         <v>3.217391304347826</v>
@@ -13349,7 +13349,7 @@
         <v>0.6016528925619835</v>
       </c>
       <c r="K76" t="n">
-        <v>0.6070742359959975</v>
+        <v>0.6070742359959974</v>
       </c>
       <c r="L76" t="n">
         <v>3.6285714285714286</v>
@@ -13486,7 +13486,7 @@
         <v>0.5568181818181818</v>
       </c>
       <c r="K77" t="n">
-        <v>0.7348667266172743</v>
+        <v>0.7348667266172739</v>
       </c>
       <c r="L77" t="n">
         <v>3.5357142857142856</v>
@@ -13615,7 +13615,7 @@
         <v>0.583044982698962</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6977956124795661</v>
+        <v>0.6977956124795652</v>
       </c>
       <c r="L78" t="n">
         <v>2.4146341463414633</v>
@@ -13744,7 +13744,7 @@
         <v>0.5871271585557299</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6122818944340567</v>
+        <v>0.6122818944340565</v>
       </c>
       <c r="L79" t="n">
         <v>1.5666666666666667</v>
@@ -14002,7 +14002,7 @@
         <v>0.6578125</v>
       </c>
       <c r="K81" t="n">
-        <v>0.6947587760390111</v>
+        <v>0.6947587760390109</v>
       </c>
       <c r="L81" t="n">
         <v>1.32</v>
@@ -14139,7 +14139,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5876751203535704</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L82" t="n">
         <v>1.5714285714285714</v>
@@ -14268,7 +14268,7 @@
         <v>0.5871212121212122</v>
       </c>
       <c r="K83" t="n">
-        <v>0.6409540843727307</v>
+        <v>0.6409540843727313</v>
       </c>
       <c r="L83" t="n">
         <v>1.588235294117647</v>
@@ -14679,7 +14679,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L86" t="n">
         <v>2.8</v>
@@ -14816,7 +14816,7 @@
         <v>0.30871212121212116</v>
       </c>
       <c r="K87" t="n">
-        <v>0.49651330570513613</v>
+        <v>0.4965133057051359</v>
       </c>
       <c r="L87" t="n">
         <v>4.52054794520548</v>
@@ -14945,7 +14945,7 @@
         <v>0.5831517792302106</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7367093233042641</v>
+        <v>0.7367093233042643</v>
       </c>
       <c r="L88" t="n">
         <v>2.381818181818182</v>
@@ -15203,7 +15203,7 @@
         <v>0.6445707070707071</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5602897572581594</v>
+        <v>0.5602897572581601</v>
       </c>
       <c r="L90" t="n">
         <v>2.62</v>
@@ -15340,7 +15340,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K91" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L91" t="n">
         <v>1.4166666666666667</v>
@@ -15469,7 +15469,7 @@
         <v>0.30793650793650795</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5133587615283302</v>
+        <v>0.5133587615283303</v>
       </c>
       <c r="L92" t="n">
         <v>2.6444444444444444</v>
@@ -15743,7 +15743,7 @@
         <v>0.6201888162672476</v>
       </c>
       <c r="K94" t="n">
-        <v>0.8035000828379489</v>
+        <v>0.8035000828379488</v>
       </c>
       <c r="L94" t="n">
         <v>3.0434782608695654</v>
@@ -15880,7 +15880,7 @@
         <v>0.7460753532182104</v>
       </c>
       <c r="K95" t="n">
-        <v>0.7659900814231756</v>
+        <v>0.7659900814231754</v>
       </c>
       <c r="L95" t="n">
         <v>3.4</v>
@@ -16009,7 +16009,7 @@
         <v>0.3851010101010101</v>
       </c>
       <c r="K96" t="n">
-        <v>0.6367668552836961</v>
+        <v>0.6367668552836967</v>
       </c>
       <c r="L96" t="n">
         <v>1.8333333333333333</v>
@@ -16138,7 +16138,7 @@
         <v>0.5388540031397174</v>
       </c>
       <c r="K97" t="n">
-        <v>0.6698156988970374</v>
+        <v>0.6698156988970377</v>
       </c>
       <c r="L97" t="n">
         <v>2.0833333333333335</v>
@@ -16541,7 +16541,7 @@
         <v>0.46111111111111114</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5780234735063565</v>
+        <v>0.5780234735063566</v>
       </c>
       <c r="L100" t="n">
         <v>1.608695652173913</v>
@@ -16670,7 +16670,7 @@
         <v>0.6957070707070707</v>
       </c>
       <c r="K101" t="n">
-        <v>0.6952215599621802</v>
+        <v>0.6952215599621799</v>
       </c>
       <c r="L101" t="n">
         <v>1.85</v>
@@ -16807,7 +16807,7 @@
         <v>0.32007575757575757</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5575331000518126</v>
+        <v>0.5575331000518123</v>
       </c>
       <c r="L102" t="n">
         <v>2.3157894736842106</v>
@@ -16944,7 +16944,7 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="K103" t="n">
-        <v>0.7636558774525606</v>
+        <v>0.7636558774525607</v>
       </c>
       <c r="L103" t="n">
         <v>1.9545454545454546</v>
@@ -17345,7 +17345,7 @@
         <v>0.45523809523809516</v>
       </c>
       <c r="K106" t="n">
-        <v>0.6740935269973216</v>
+        <v>0.674093526997322</v>
       </c>
       <c r="L106" t="n">
         <v>2.6444444444444444</v>
@@ -17474,7 +17474,7 @@
         <v>0.5321969696969697</v>
       </c>
       <c r="K107" t="n">
-        <v>0.7051532762746361</v>
+        <v>0.7051532762746366</v>
       </c>
       <c r="L107" t="n">
         <v>1.6857142857142857</v>
@@ -17611,7 +17611,7 @@
         <v>0.586031746031746</v>
       </c>
       <c r="K108" t="n">
-        <v>0.6841071345587562</v>
+        <v>0.6841071345587559</v>
       </c>
       <c r="L108" t="n">
         <v>4.219298245614035</v>
@@ -17740,7 +17740,7 @@
         <v>0.5119949494949495</v>
       </c>
       <c r="K109" t="n">
-        <v>0.6635512895573336</v>
+        <v>0.6635512895573338</v>
       </c>
       <c r="L109" t="n">
         <v>1.5757575757575757</v>
@@ -17877,7 +17877,7 @@
         <v>0.63510101010101</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7523172964895064</v>
+        <v>0.7523172964895061</v>
       </c>
       <c r="L110" t="n">
         <v>3.142857142857143</v>
@@ -18151,7 +18151,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K112" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L112" t="n">
         <v>1.52</v>
@@ -18280,7 +18280,7 @@
         <v>0.42003367003367</v>
       </c>
       <c r="K113" t="n">
-        <v>0.5586914518729812</v>
+        <v>0.5586914518729813</v>
       </c>
       <c r="L113" t="n">
         <v>2.1846153846153844</v>
@@ -18409,7 +18409,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K114" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L114" t="n">
         <v>2.8</v>
@@ -18804,7 +18804,7 @@
         <v>0.32407407407407407</v>
       </c>
       <c r="K117" t="n">
-        <v>0.4609477527835927</v>
+        <v>0.4609477527835929</v>
       </c>
       <c r="L117" t="n">
         <v>1.4444444444444444</v>
@@ -18941,7 +18941,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K118" t="n">
-        <v>0.7146893795229587</v>
+        <v>0.7146893795229589</v>
       </c>
       <c r="L118" t="n">
         <v>2.3846153846153846</v>
@@ -19215,7 +19215,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K120" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L120" t="n">
         <v>1.4545454545454546</v>
@@ -19344,7 +19344,7 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="K121" t="n">
-        <v>0.6452581025770652</v>
+        <v>0.6452581025770662</v>
       </c>
       <c r="L121" t="n">
         <v>2.6</v>
@@ -19481,7 +19481,7 @@
         <v>0.5849867724867724</v>
       </c>
       <c r="K122" t="n">
-        <v>0.755137706268543</v>
+        <v>0.7551377062685432</v>
       </c>
       <c r="L122" t="n">
         <v>2.061224489795918</v>
@@ -19618,7 +19618,7 @@
         <v>0.5422222222222223</v>
       </c>
       <c r="K123" t="n">
-        <v>0.638111901890155</v>
+        <v>0.6381119018901545</v>
       </c>
       <c r="L123" t="n">
         <v>2.142857142857143</v>
@@ -19755,7 +19755,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L124" t="n">
         <v>1.5714285714285714</v>
@@ -19892,7 +19892,7 @@
         <v>0.5066666666666667</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5816584263908307</v>
+        <v>0.5816584263908321</v>
       </c>
       <c r="L125" t="n">
         <v>2.2916666666666665</v>
@@ -20158,7 +20158,7 @@
         <v>0.4897959183673469</v>
       </c>
       <c r="K127" t="n">
-        <v>0.7149242141069748</v>
+        <v>0.7149242141069743</v>
       </c>
       <c r="L127" t="n">
         <v>1.9047619047619047</v>
@@ -20287,7 +20287,7 @@
         <v>0.5684826100338565</v>
       </c>
       <c r="K128" t="n">
-        <v>0.7155827599682931</v>
+        <v>0.7155827599682948</v>
       </c>
       <c r="L128" t="n">
         <v>2.875</v>
@@ -20416,7 +20416,7 @@
         <v>0.7268244575936884</v>
       </c>
       <c r="K129" t="n">
-        <v>0.7829550888228453</v>
+        <v>0.7829550888228454</v>
       </c>
       <c r="L129" t="n">
         <v>1.6285714285714286</v>
@@ -20553,7 +20553,7 @@
         <v>0.25570586820586816</v>
       </c>
       <c r="K130" t="n">
-        <v>0.33376748287515956</v>
+        <v>0.3337674828751597</v>
       </c>
       <c r="L130" t="n">
         <v>2.517857142857143</v>
@@ -20690,7 +20690,7 @@
         <v>0.45524691358024694</v>
       </c>
       <c r="K131" t="n">
-        <v>0.49563515391011814</v>
+        <v>0.4956351539101179</v>
       </c>
       <c r="L131" t="n">
         <v>3.5714285714285716</v>
@@ -20827,7 +20827,7 @@
         <v>0.4012345679012346</v>
       </c>
       <c r="K132" t="n">
-        <v>0.5706662038348006</v>
+        <v>0.5706662038348004</v>
       </c>
       <c r="L132" t="n">
         <v>1.2857142857142858</v>
@@ -20964,7 +20964,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K133" t="n">
-        <v>0.587974521547336</v>
+        <v>0.5879745215473358</v>
       </c>
       <c r="L133" t="n">
         <v>1.619047619047619</v>
@@ -21101,7 +21101,7 @@
         <v>0.4723809523809524</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6599352246598524</v>
+        <v>0.6599352246598525</v>
       </c>
       <c r="L134" t="n">
         <v>1.763157894736842</v>
@@ -21238,7 +21238,7 @@
         <v>0.7229199372056515</v>
       </c>
       <c r="K135" t="n">
-        <v>0.7085449778358617</v>
+        <v>0.708544977835862</v>
       </c>
       <c r="L135" t="n">
         <v>3.2708333333333335</v>
@@ -21375,7 +21375,7 @@
         <v>0.5890151515151515</v>
       </c>
       <c r="K136" t="n">
-        <v>0.7090782071298443</v>
+        <v>0.7090782071298442</v>
       </c>
       <c r="L136" t="n">
         <v>1.5517241379310345</v>
@@ -21512,7 +21512,7 @@
         <v>0.4948559670781894</v>
       </c>
       <c r="K137" t="n">
-        <v>0.45203440887737645</v>
+        <v>0.452034408877376</v>
       </c>
       <c r="L137" t="n">
         <v>2.0</v>
@@ -21649,7 +21649,7 @@
         <v>0.566984126984127</v>
       </c>
       <c r="K138" t="n">
-        <v>0.7320303925267772</v>
+        <v>0.732030392526777</v>
       </c>
       <c r="L138" t="n">
         <v>3.1666666666666665</v>
@@ -21778,7 +21778,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K139" t="n">
-        <v>0.6781292256774814</v>
+        <v>0.6781292256774809</v>
       </c>
       <c r="L139" t="n">
         <v>3.130434782608696</v>
@@ -21915,7 +21915,7 @@
         <v>0.44002525252525254</v>
       </c>
       <c r="K140" t="n">
-        <v>0.631631308167427</v>
+        <v>0.6316313081674266</v>
       </c>
       <c r="L140" t="n">
         <v>2.257142857142857</v>
@@ -22044,7 +22044,7 @@
         <v>0.6222879684418146</v>
       </c>
       <c r="K141" t="n">
-        <v>0.6892463126536582</v>
+        <v>0.6892463126536583</v>
       </c>
       <c r="L141" t="n">
         <v>4.574468085106383</v>
@@ -22181,7 +22181,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K142" t="n">
-        <v>0.6084726494563825</v>
+        <v>0.6084726494563824</v>
       </c>
       <c r="L142" t="n">
         <v>1.4</v>
@@ -22310,7 +22310,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K143" t="n">
-        <v>0.6749707165392146</v>
+        <v>0.6749707165392148</v>
       </c>
       <c r="L143" t="n">
         <v>2.4</v>
@@ -22447,7 +22447,7 @@
         <v>0.4447731755424063</v>
       </c>
       <c r="K144" t="n">
-        <v>0.6906559137776304</v>
+        <v>0.6906559137776301</v>
       </c>
       <c r="L144" t="n">
         <v>2.2051282051282053</v>
@@ -22584,7 +22584,7 @@
         <v>1.0</v>
       </c>
       <c r="K145" t="n">
-        <v>0.7683375209644602</v>
+        <v>0.7683375209644601</v>
       </c>
       <c r="L145" t="n">
         <v>2.793103448275862</v>
@@ -22838,7 +22838,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K147" t="n">
-        <v>0.5876751203535698</v>
+        <v>0.5876751203535705</v>
       </c>
       <c r="L147" t="n">
         <v>1.619047619047619</v>
@@ -22975,7 +22975,7 @@
         <v>0.5039246467817896</v>
       </c>
       <c r="K148" t="n">
-        <v>0.6575429501898372</v>
+        <v>0.6575429501898363</v>
       </c>
       <c r="L148" t="n">
         <v>3.15</v>
@@ -23112,7 +23112,7 @@
         <v>0.4660493827160494</v>
       </c>
       <c r="K149" t="n">
-        <v>0.5348559786120489</v>
+        <v>0.5348559786120486</v>
       </c>
       <c r="L149" t="n">
         <v>1.3571428571428572</v>
@@ -23241,7 +23241,7 @@
         <v>0.6640625</v>
       </c>
       <c r="K150" t="n">
-        <v>0.8065624356453036</v>
+        <v>0.8065624356453038</v>
       </c>
       <c r="L150" t="n">
         <v>1.7837837837837838</v>
@@ -23378,7 +23378,7 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="K151" t="n">
-        <v>0.6268519134342819</v>
+        <v>0.6268519134342817</v>
       </c>
       <c r="L151" t="n">
         <v>3.0344827586206895</v>
@@ -23515,7 +23515,7 @@
         <v>0.6115702479338843</v>
       </c>
       <c r="K152" t="n">
-        <v>0.6415878375918008</v>
+        <v>0.6415878375918009</v>
       </c>
       <c r="L152" t="n">
         <v>3.413793103448276</v>
@@ -23652,7 +23652,7 @@
         <v>0.8148148148148148</v>
       </c>
       <c r="K153" t="n">
-        <v>0.662452460082303</v>
+        <v>0.6624524600823032</v>
       </c>
       <c r="L153" t="n">
         <v>1.5757575757575757</v>
@@ -23785,7 +23785,7 @@
         <v>0.5700757575757576</v>
       </c>
       <c r="K154" t="n">
-        <v>0.6520856219376466</v>
+        <v>0.6520856219376465</v>
       </c>
       <c r="L154" t="n">
         <v>3.21875</v>
@@ -23912,7 +23912,7 @@
         <v>0.7209595959595959</v>
       </c>
       <c r="K155" t="n">
-        <v>0.7539578260896124</v>
+        <v>0.7539578260896125</v>
       </c>
       <c r="L155" t="n">
         <v>2.375</v>
@@ -24049,7 +24049,7 @@
         <v>0.5044191919191919</v>
       </c>
       <c r="K156" t="n">
-        <v>0.6427389230910836</v>
+        <v>0.6427389230910839</v>
       </c>
       <c r="L156" t="n">
         <v>2.1538461538461537</v>
@@ -24178,7 +24178,7 @@
         <v>0.5488888888888889</v>
       </c>
       <c r="K157" t="n">
-        <v>0.6371126306987888</v>
+        <v>0.6371126306987885</v>
       </c>
       <c r="L157" t="n">
         <v>2.25</v>
@@ -24581,7 +24581,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K160" t="n">
-        <v>0.5876751203535703</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L160" t="n">
         <v>1.4</v>
@@ -24718,7 +24718,7 @@
         <v>0.5997474747474747</v>
       </c>
       <c r="K161" t="n">
-        <v>0.7263315264302915</v>
+        <v>0.7263315264302913</v>
       </c>
       <c r="L161" t="n">
         <v>2.3461538461538463</v>
@@ -24855,7 +24855,7 @@
         <v>0.39173553719008264</v>
       </c>
       <c r="K162" t="n">
-        <v>0.6383479422507065</v>
+        <v>0.6383479422507061</v>
       </c>
       <c r="L162" t="n">
         <v>2.933333333333333</v>
@@ -24984,7 +24984,7 @@
         <v>0.5867768595041323</v>
       </c>
       <c r="K163" t="n">
-        <v>0.6644869838125752</v>
+        <v>0.6644869838125749</v>
       </c>
       <c r="L163" t="n">
         <v>1.5806451612903225</v>
@@ -25121,7 +25121,7 @@
         <v>0.3256883885345424</v>
       </c>
       <c r="K164" t="n">
-        <v>0.6427897696765311</v>
+        <v>0.6427897696765308</v>
       </c>
       <c r="L164" t="n">
         <v>4.3446808510638295</v>
@@ -25250,7 +25250,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K165" t="n">
-        <v>0.7503994041344021</v>
+        <v>0.7503994041344023</v>
       </c>
       <c r="L165" t="n">
         <v>1.5714285714285714</v>
@@ -25379,7 +25379,7 @@
         <v>0.5694444444444444</v>
       </c>
       <c r="K166" t="n">
-        <v>0.7295283117584025</v>
+        <v>0.7295283117584017</v>
       </c>
       <c r="L166" t="n">
         <v>1.8636363636363635</v>
@@ -25645,7 +25645,7 @@
         <v>0.5069444444444444</v>
       </c>
       <c r="K168" t="n">
-        <v>0.6272376357723488</v>
+        <v>0.627237635772349</v>
       </c>
       <c r="L168" t="n">
         <v>3.111111111111111</v>
@@ -25774,7 +25774,7 @@
         <v>0.6055226824457594</v>
       </c>
       <c r="K169" t="n">
-        <v>0.7672855417890355</v>
+        <v>0.7672855417890352</v>
       </c>
       <c r="L169" t="n">
         <v>1.8611111111111112</v>
@@ -25903,7 +25903,7 @@
         <v>0.37037037037037035</v>
       </c>
       <c r="K170" t="n">
-        <v>0.43324632030046983</v>
+        <v>0.43324632030046994</v>
       </c>
       <c r="L170" t="n">
         <v>2.1578947368421053</v>
@@ -26030,7 +26030,7 @@
         <v>0.3541273299443234</v>
       </c>
       <c r="K171" t="n">
-        <v>0.5429630923949835</v>
+        <v>0.5429630923949837</v>
       </c>
       <c r="L171" t="n">
         <v>4.90990990990991</v>
@@ -26167,7 +26167,7 @@
         <v>0.5453648915187377</v>
       </c>
       <c r="K172" t="n">
-        <v>0.6833458460264671</v>
+        <v>0.6833458460264668</v>
       </c>
       <c r="L172" t="n">
         <v>1.125</v>
@@ -26304,7 +26304,7 @@
         <v>0.5448232323232324</v>
       </c>
       <c r="K173" t="n">
-        <v>0.6113783877660214</v>
+        <v>0.6113783877660213</v>
       </c>
       <c r="L173" t="n">
         <v>1.105263157894737</v>
@@ -26433,7 +26433,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K174" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L174" t="n">
         <v>3.1904761904761907</v>
@@ -26570,7 +26570,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K175" t="n">
-        <v>0.6749707165392153</v>
+        <v>0.6749707165392151</v>
       </c>
       <c r="L175" t="n">
         <v>2.5</v>
@@ -26707,7 +26707,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K176" t="n">
-        <v>0.5497246451155324</v>
+        <v>0.5497246451155323</v>
       </c>
       <c r="L176" t="n">
         <v>1.1875</v>
@@ -26836,7 +26836,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K177" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L177" t="n">
         <v>3.8666666666666667</v>
@@ -26973,7 +26973,7 @@
         <v>0.5542929292929293</v>
       </c>
       <c r="K178" t="n">
-        <v>0.7437212953676028</v>
+        <v>0.7437212953676031</v>
       </c>
       <c r="L178" t="n">
         <v>1.8518518518518519</v>
@@ -27231,7 +27231,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K180" t="n">
-        <v>0.6536855299290221</v>
+        <v>0.6536855299290223</v>
       </c>
       <c r="L180" t="n">
         <v>1.4375</v>
@@ -27368,7 +27368,7 @@
         <v>0.5069033530571992</v>
       </c>
       <c r="K181" t="n">
-        <v>0.6247556789684462</v>
+        <v>0.6247556789684463</v>
       </c>
       <c r="L181" t="n">
         <v>3.36</v>
@@ -27505,7 +27505,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="K182" t="n">
-        <v>0.6848446400614068</v>
+        <v>0.6848446400614067</v>
       </c>
       <c r="L182" t="n">
         <v>1.4210526315789473</v>
@@ -27763,7 +27763,7 @@
         <v>0.5640625</v>
       </c>
       <c r="K184" t="n">
-        <v>0.8081356852470564</v>
+        <v>0.8081356852470563</v>
       </c>
       <c r="L184" t="n">
         <v>1.7906976744186047</v>
@@ -27892,7 +27892,7 @@
         <v>0.5498737373737373</v>
       </c>
       <c r="K185" t="n">
-        <v>0.5921570582603476</v>
+        <v>0.5921570582603474</v>
       </c>
       <c r="L185" t="n">
         <v>1.6153846153846154</v>
@@ -28029,7 +28029,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K186" t="n">
-        <v>0.5876751203535702</v>
+        <v>0.5876751203535707</v>
       </c>
       <c r="L186" t="n">
         <v>2.25</v>
@@ -28158,7 +28158,7 @@
         <v>0.5252525252525253</v>
       </c>
       <c r="K187" t="n">
-        <v>0.6781292256774809</v>
+        <v>0.6781292256774808</v>
       </c>
       <c r="L187" t="n">
         <v>2.206896551724138</v>
@@ -28295,7 +28295,7 @@
         <v>0.4012698412698413</v>
       </c>
       <c r="K188" t="n">
-        <v>0.5183013813232812</v>
+        <v>0.5183013813232813</v>
       </c>
       <c r="L188" t="n">
         <v>3.3714285714285714</v>
@@ -28432,7 +28432,7 @@
         <v>0.5378787878787878</v>
       </c>
       <c r="K189" t="n">
-        <v>0.5855959513156895</v>
+        <v>0.5855959513156898</v>
       </c>
       <c r="L189" t="n">
         <v>3.033333333333333</v>
@@ -28569,7 +28569,7 @@
         <v>0.5669421487603306</v>
       </c>
       <c r="K190" t="n">
-        <v>0.6516486685308231</v>
+        <v>0.6516486685308233</v>
       </c>
       <c r="L190" t="n">
         <v>3.3421052631578947</v>
@@ -28706,7 +28706,7 @@
         <v>0.601010101010101</v>
       </c>
       <c r="K191" t="n">
-        <v>0.596222449591005</v>
+        <v>0.5962224495910051</v>
       </c>
       <c r="L191" t="n">
         <v>1.6785714285714286</v>
@@ -28843,7 +28843,7 @@
         <v>0.7000726216412491</v>
       </c>
       <c r="K192" t="n">
-        <v>0.7917764071627924</v>
+        <v>0.7917764071627923</v>
       </c>
       <c r="L192" t="n">
         <v>1.9411764705882353</v>
@@ -28980,7 +28980,7 @@
         <v>0.547008547008547</v>
       </c>
       <c r="K193" t="n">
-        <v>0.6399873791912946</v>
+        <v>0.639987379191295</v>
       </c>
       <c r="L193" t="n">
         <v>6.049180327868853</v>
@@ -29117,7 +29117,7 @@
         <v>0.6291913214990138</v>
       </c>
       <c r="K194" t="n">
-        <v>0.617676172468797</v>
+        <v>0.6176761724687965</v>
       </c>
       <c r="L194" t="n">
         <v>1.95</v>
@@ -29254,7 +29254,7 @@
         <v>0.628099173553719</v>
       </c>
       <c r="K195" t="n">
-        <v>0.620449651874637</v>
+        <v>0.6204496518746371</v>
       </c>
       <c r="L195" t="n">
         <v>1.9</v>
@@ -29391,7 +29391,7 @@
         <v>0.523989898989899</v>
       </c>
       <c r="K196" t="n">
-        <v>0.5979708817508217</v>
+        <v>0.5979708817508221</v>
       </c>
       <c r="L196" t="n">
         <v>2.64</v>
@@ -29528,7 +29528,7 @@
         <v>0.6264462809917355</v>
       </c>
       <c r="K197" t="n">
-        <v>0.6813106699907031</v>
+        <v>0.6813106699907034</v>
       </c>
       <c r="L197" t="n">
         <v>1.631578947368421</v>
@@ -29663,7 +29663,7 @@
         <v>0.5138888888888888</v>
       </c>
       <c r="K198" t="n">
-        <v>0.5802094782772224</v>
+        <v>0.5802094782772225</v>
       </c>
       <c r="L198" t="n">
         <v>1.7857142857142858</v>
@@ -29800,7 +29800,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="K199" t="n">
-        <v>0.5462159949252696</v>
+        <v>0.5462159949252702</v>
       </c>
       <c r="L199" t="n">
         <v>3.2413793103448274</v>
@@ -29937,7 +29937,7 @@
         <v>0.6733333333333333</v>
       </c>
       <c r="K200" t="n">
-        <v>0.6189101001411758</v>
+        <v>0.6189101001411754</v>
       </c>
       <c r="L200" t="n">
         <v>3.5</v>
@@ -30074,7 +30074,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K201" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535704</v>
       </c>
       <c r="L201" t="n">
         <v>2.0</v>
@@ -30211,7 +30211,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K202" t="n">
-        <v>0.6536855299290223</v>
+        <v>0.6536855299290221</v>
       </c>
       <c r="L202" t="n">
         <v>1.5</v>
@@ -30348,7 +30348,7 @@
         <v>0.5621301775147929</v>
       </c>
       <c r="K203" t="n">
-        <v>0.6111111111111115</v>
+        <v>0.6111111111111114</v>
       </c>
       <c r="L203" t="n">
         <v>2.0</v>
@@ -30485,7 +30485,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K204" t="n">
-        <v>0.5876751203535707</v>
+        <v>0.5876751203535698</v>
       </c>
       <c r="L204" t="n">
         <v>1.5714285714285714</v>
@@ -30622,7 +30622,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K205" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344023</v>
       </c>
       <c r="L205" t="n">
         <v>1.6</v>
@@ -31033,7 +31033,7 @@
         <v>0.6224747474747475</v>
       </c>
       <c r="K208" t="n">
-        <v>0.6337679448704804</v>
+        <v>0.6337679448704803</v>
       </c>
       <c r="L208" t="n">
         <v>1.6153846153846154</v>
@@ -31307,7 +31307,7 @@
         <v>0.52465483234714</v>
       </c>
       <c r="K210" t="n">
-        <v>0.7002847398183256</v>
+        <v>0.7002847398183253</v>
       </c>
       <c r="L210" t="n">
         <v>1.793103448275862</v>
@@ -31444,7 +31444,7 @@
         <v>0.37247474747474746</v>
       </c>
       <c r="K211" t="n">
-        <v>0.5839069883267831</v>
+        <v>0.5839069883267837</v>
       </c>
       <c r="L211" t="n">
         <v>1.7727272727272727</v>
@@ -31581,7 +31581,7 @@
         <v>0.5738636363636364</v>
       </c>
       <c r="K212" t="n">
-        <v>0.6084726494563821</v>
+        <v>0.6084726494563819</v>
       </c>
       <c r="L212" t="n">
         <v>1.4090909090909092</v>
@@ -31992,7 +31992,7 @@
         <v>0.706828885400314</v>
       </c>
       <c r="K215" t="n">
-        <v>0.7465589852152262</v>
+        <v>0.7465589852152268</v>
       </c>
       <c r="L215" t="n">
         <v>2.71875</v>
@@ -32266,7 +32266,7 @@
         <v>0.5256198347107438</v>
       </c>
       <c r="K217" t="n">
-        <v>0.6551138098567637</v>
+        <v>0.6551138098567633</v>
       </c>
       <c r="L217" t="n">
         <v>1.1428571428571428</v>
@@ -32403,7 +32403,7 @@
         <v>0.5505050505050505</v>
       </c>
       <c r="K218" t="n">
-        <v>0.49933254646610675</v>
+        <v>0.49933254646610725</v>
       </c>
       <c r="L218" t="n">
         <v>4.206896551724138</v>
@@ -32540,7 +32540,7 @@
         <v>0.6550570641479733</v>
       </c>
       <c r="K219" t="n">
-        <v>0.7423890598447436</v>
+        <v>0.7423890598447439</v>
       </c>
       <c r="L219" t="n">
         <v>2.375</v>
@@ -32669,7 +32669,7 @@
         <v>0.5364891518737672</v>
       </c>
       <c r="K220" t="n">
-        <v>0.6280353788176076</v>
+        <v>0.6280353788176077</v>
       </c>
       <c r="L220" t="n">
         <v>1.4705882352941178</v>
@@ -32798,7 +32798,7 @@
         <v>0.38667929292929293</v>
       </c>
       <c r="K221" t="n">
-        <v>0.5414506112685875</v>
+        <v>0.5414506112685878</v>
       </c>
       <c r="L221" t="n">
         <v>5.5</v>
@@ -32927,7 +32927,7 @@
         <v>0.35174603174603175</v>
       </c>
       <c r="K222" t="n">
-        <v>0.7400106338867254</v>
+        <v>0.7400106338867258</v>
       </c>
       <c r="L222" t="n">
         <v>1.8</v>
@@ -33056,7 +33056,7 @@
         <v>0.6043956043956044</v>
       </c>
       <c r="K223" t="n">
-        <v>0.6192501947457054</v>
+        <v>0.6192501947457051</v>
       </c>
       <c r="L223" t="n">
         <v>1.0</v>
@@ -33322,7 +33322,7 @@
         <v>0.555918663761801</v>
       </c>
       <c r="K225" t="n">
-        <v>0.6932295827470418</v>
+        <v>0.6932295827470423</v>
       </c>
       <c r="L225" t="n">
         <v>3.4722222222222223</v>
@@ -33451,7 +33451,7 @@
         <v>0.5971354166666667</v>
       </c>
       <c r="K226" t="n">
-        <v>0.6779447010226779</v>
+        <v>0.677944701022678</v>
       </c>
       <c r="L226" t="n">
         <v>1.6829268292682926</v>
@@ -33580,7 +33580,7 @@
         <v>0.8091005291005292</v>
       </c>
       <c r="K227" t="n">
-        <v>0.7414111553854233</v>
+        <v>0.7414111553854236</v>
       </c>
       <c r="L227" t="n">
         <v>3.576</v>
@@ -33709,7 +33709,7 @@
         <v>0.615625</v>
       </c>
       <c r="K228" t="n">
-        <v>0.7300163799033654</v>
+        <v>0.7300163799033652</v>
       </c>
       <c r="L228" t="n">
         <v>1.8181818181818181</v>
@@ -33846,7 +33846,7 @@
         <v>0.41023929773929774</v>
       </c>
       <c r="K229" t="n">
-        <v>0.5729568581892686</v>
+        <v>0.5729568581892688</v>
       </c>
       <c r="L229" t="n">
         <v>2.731707317073171</v>
@@ -34370,7 +34370,7 @@
         <v>0.4965504720406681</v>
       </c>
       <c r="K233" t="n">
-        <v>0.7738283863607279</v>
+        <v>0.7738283863607283</v>
       </c>
       <c r="L233" t="n">
         <v>1.8048780487804879</v>
@@ -34628,7 +34628,7 @@
         <v>0.42140039447731764</v>
       </c>
       <c r="K235" t="n">
-        <v>0.5849811521556815</v>
+        <v>0.5849811521556811</v>
       </c>
       <c r="L235" t="n">
         <v>2.25</v>
@@ -34757,7 +34757,7 @@
         <v>0.596646942800789</v>
       </c>
       <c r="K236" t="n">
-        <v>0.7217444379347063</v>
+        <v>0.7217444379347061</v>
       </c>
       <c r="L236" t="n">
         <v>1.434782608695652</v>
@@ -34886,7 +34886,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K237" t="n">
-        <v>0.7503994041344022</v>
+        <v>0.7503994041344023</v>
       </c>
       <c r="L237" t="n">
         <v>1.5</v>
@@ -35152,7 +35152,7 @@
         <v>0.6400394477317555</v>
       </c>
       <c r="K239" t="n">
-        <v>0.7085243743539137</v>
+        <v>0.7085243743539138</v>
       </c>
       <c r="L239" t="n">
         <v>1.5217391304347827</v>
@@ -35281,7 +35281,7 @@
         <v>0.6279365079365079</v>
       </c>
       <c r="K240" t="n">
-        <v>0.7074750507941107</v>
+        <v>0.7074750507941105</v>
       </c>
       <c r="L240" t="n">
         <v>1.8461538461538463</v>
@@ -35410,7 +35410,7 @@
         <v>0.44635416666666666</v>
       </c>
       <c r="K241" t="n">
-        <v>0.6515685568801918</v>
+        <v>0.6515685568801916</v>
       </c>
       <c r="L241" t="n">
         <v>3.1587301587301586</v>
@@ -35539,7 +35539,7 @@
         <v>0.5149136577708007</v>
       </c>
       <c r="K242" t="n">
-        <v>0.720257668192263</v>
+        <v>0.7202576681922638</v>
       </c>
       <c r="L242" t="n">
         <v>2.1372549019607843</v>
@@ -35668,7 +35668,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="K243" t="n">
-        <v>0.6848446400614066</v>
+        <v>0.6848446400614063</v>
       </c>
       <c r="L243" t="n">
         <v>2.5294117647058822</v>
@@ -35797,7 +35797,7 @@
         <v>0.633256704980843</v>
       </c>
       <c r="K244" t="n">
-        <v>0.780866871373121</v>
+        <v>0.7808668713731198</v>
       </c>
       <c r="L244" t="n">
         <v>1.6</v>
@@ -35934,7 +35934,7 @@
         <v>0.5514705882352942</v>
       </c>
       <c r="K245" t="n">
-        <v>0.702062789355288</v>
+        <v>0.7020627893552873</v>
       </c>
       <c r="L245" t="n">
         <v>2.89010989010989</v>
@@ -36071,7 +36071,7 @@
         <v>0.6534090909090909</v>
       </c>
       <c r="K246" t="n">
-        <v>0.6931124125449197</v>
+        <v>0.6931124125449201</v>
       </c>
       <c r="L246" t="n">
         <v>1.375</v>
@@ -36466,7 +36466,7 @@
         <v>0.51010101010101</v>
       </c>
       <c r="K249" t="n">
-        <v>0.622152256849212</v>
+        <v>0.6221522568492124</v>
       </c>
       <c r="L249" t="n">
         <v>1.6538461538461537</v>
@@ -36740,7 +36740,7 @@
         <v>0.33228139381985544</v>
       </c>
       <c r="K251" t="n">
-        <v>0.5811148380473612</v>
+        <v>0.5811148380473605</v>
       </c>
       <c r="L251" t="n">
         <v>6.901639344262295</v>
@@ -36869,7 +36869,7 @@
         <v>0.6302636757182212</v>
       </c>
       <c r="K252" t="n">
-        <v>0.7056051838996017</v>
+        <v>0.7056051838996018</v>
       </c>
       <c r="L252" t="n">
         <v>3.45</v>
@@ -36998,7 +36998,7 @@
         <v>0.5707166179755971</v>
       </c>
       <c r="K253" t="n">
-        <v>0.7706074640207351</v>
+        <v>0.770607464020737</v>
       </c>
       <c r="L253" t="n">
         <v>1.7878787878787878</v>
@@ -37127,7 +37127,7 @@
         <v>0.4991349480968858</v>
       </c>
       <c r="K254" t="n">
-        <v>0.69725407365544</v>
+        <v>0.6972540736554401</v>
       </c>
       <c r="L254" t="n">
         <v>1.9230769230769231</v>
@@ -37256,7 +37256,7 @@
         <v>0.595679012345679</v>
       </c>
       <c r="K255" t="n">
-        <v>0.6536855299290221</v>
+        <v>0.653685529929022</v>
       </c>
       <c r="L255" t="n">
         <v>1.3333333333333333</v>
@@ -37393,7 +37393,7 @@
         <v>0.6279365079365079</v>
       </c>
       <c r="K256" t="n">
-        <v>0.6750867163585549</v>
+        <v>0.675086716358555</v>
       </c>
       <c r="L256" t="n">
         <v>3.8625</v>
@@ -37651,7 +37651,7 @@
         <v>0.6056</v>
       </c>
       <c r="K258" t="n">
-        <v>0.7263578664227309</v>
+        <v>0.7263578664227307</v>
       </c>
       <c r="L258" t="n">
         <v>1.8409090909090908</v>
@@ -37780,7 +37780,7 @@
         <v>0.6429752066115703</v>
       </c>
       <c r="K259" t="n">
-        <v>0.7355499095234121</v>
+        <v>0.7355499095234124</v>
       </c>
       <c r="L259" t="n">
         <v>2.3333333333333335</v>
@@ -38046,7 +38046,7 @@
         <v>0.6982323232323232</v>
       </c>
       <c r="K261" t="n">
-        <v>0.7457525979090072</v>
+        <v>0.7457525979090073</v>
       </c>
       <c r="L261" t="n">
         <v>1.2941176470588236</v>
@@ -38175,7 +38175,7 @@
         <v>0.6370808678500987</v>
       </c>
       <c r="K262" t="n">
-        <v>0.6621504322623792</v>
+        <v>0.6621504322623794</v>
       </c>
       <c r="L262" t="n">
         <v>3.533333333333333</v>
@@ -38304,7 +38304,7 @@
         <v>0.6400394477317555</v>
       </c>
       <c r="K263" t="n">
-        <v>0.7085243743539132</v>
+        <v>0.7085243743539134</v>
       </c>
       <c r="L263" t="n">
         <v>1.8333333333333333</v>
@@ -38441,7 +38441,7 @@
         <v>0.6699346405228758</v>
       </c>
       <c r="K264" t="n">
-        <v>0.7122802625711889</v>
+        <v>0.7122802625711891</v>
       </c>
       <c r="L264" t="n">
         <v>1.3793103448275863</v>
@@ -38570,7 +38570,7 @@
         <v>0.5072916666666667</v>
       </c>
       <c r="K265" t="n">
-        <v>0.6410418120233885</v>
+        <v>0.6410418120233883</v>
       </c>
       <c r="L265" t="n">
         <v>3.051282051282051</v>
@@ -38699,7 +38699,7 @@
         <v>0.5542406311637081</v>
       </c>
       <c r="K266" t="n">
-        <v>0.581486844393844</v>
+        <v>0.5814868443938436</v>
       </c>
       <c r="L266" t="n">
         <v>2.6666666666666665</v>
@@ -38828,7 +38828,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K267" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535703</v>
       </c>
       <c r="L267" t="n">
         <v>2.7142857142857144</v>
@@ -39086,7 +39086,7 @@
         <v>0.47672583826429976</v>
       </c>
       <c r="K269" t="n">
-        <v>0.5923475419384224</v>
+        <v>0.5923475419384225</v>
       </c>
       <c r="L269" t="n">
         <v>2.8679245283018866</v>
@@ -39223,7 +39223,7 @@
         <v>0.5047428542673108</v>
       </c>
       <c r="K270" t="n">
-        <v>0.7556211655864188</v>
+        <v>0.7556211655864186</v>
       </c>
       <c r="L270" t="n">
         <v>3.2181818181818183</v>
@@ -39489,7 +39489,7 @@
         <v>0.17851239669421487</v>
       </c>
       <c r="K272" t="n">
-        <v>0.5034267966167372</v>
+        <v>0.503426796616737</v>
       </c>
       <c r="L272" t="n">
         <v>3.185185185185185</v>
@@ -39618,7 +39618,7 @@
         <v>0.48444444444444446</v>
       </c>
       <c r="K273" t="n">
-        <v>0.5361560968173985</v>
+        <v>0.5361560968173988</v>
       </c>
       <c r="L273" t="n">
         <v>4.0</v>
@@ -39747,7 +39747,7 @@
         <v>0.3371271585557299</v>
       </c>
       <c r="K274" t="n">
-        <v>0.6461823403930267</v>
+        <v>0.6461823403930272</v>
       </c>
       <c r="L274" t="n">
         <v>2.2954545454545454</v>
@@ -39884,7 +39884,7 @@
         <v>0.5601577909270217</v>
       </c>
       <c r="K275" t="n">
-        <v>0.6517448742559832</v>
+        <v>0.6517448742559845</v>
       </c>
       <c r="L275" t="n">
         <v>2.1025641025641026</v>
@@ -40013,7 +40013,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="K276" t="n">
-        <v>0.5463907883734854</v>
+        <v>0.5463907883734855</v>
       </c>
       <c r="L276" t="n">
         <v>2.6666666666666665</v>
@@ -40142,7 +40142,7 @@
         <v>0.6400394477317555</v>
       </c>
       <c r="K277" t="n">
-        <v>0.7085243743539138</v>
+        <v>0.7085243743539134</v>
       </c>
       <c r="L277" t="n">
         <v>2.8484848484848486</v>
@@ -40271,7 +40271,7 @@
         <v>0.7003174603174603</v>
       </c>
       <c r="K278" t="n">
-        <v>0.7894785875624537</v>
+        <v>0.7894785875624538</v>
       </c>
       <c r="L278" t="n">
         <v>2.1666666666666665</v>
@@ -40674,7 +40674,7 @@
         <v>0.34201058201058204</v>
       </c>
       <c r="K281" t="n">
-        <v>0.5581775385070363</v>
+        <v>0.5581775385070359</v>
       </c>
       <c r="L281" t="n">
         <v>1.9811320754716981</v>
@@ -41335,7 +41335,7 @@
         <v>0.6558730158730158</v>
       </c>
       <c r="K286" t="n">
-        <v>0.7609675282047287</v>
+        <v>0.7609675282047288</v>
       </c>
       <c r="L286" t="n">
         <v>1.5806451612903225</v>
@@ -41464,7 +41464,7 @@
         <v>0.6088888888888889</v>
       </c>
       <c r="K287" t="n">
-        <v>0.6533878071413058</v>
+        <v>0.6533878071413055</v>
       </c>
       <c r="L287" t="n">
         <v>1.1666666666666667</v>
@@ -41601,7 +41601,7 @@
         <v>0.5372841444270016</v>
       </c>
       <c r="K288" t="n">
-        <v>0.6716815734420242</v>
+        <v>0.6716815734420243</v>
       </c>
       <c r="L288" t="n">
         <v>2.0869565217391304</v>
@@ -41738,7 +41738,7 @@
         <v>0.42480634229000236</v>
       </c>
       <c r="K289" t="n">
-        <v>0.6736031738775601</v>
+        <v>0.6736031738775599</v>
       </c>
       <c r="L289" t="n">
         <v>3.1956521739130435</v>
@@ -41867,7 +41867,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K290" t="n">
-        <v>0.6834720486951734</v>
+        <v>0.6834720486951736</v>
       </c>
       <c r="L290" t="n">
         <v>1.6956521739130435</v>
@@ -41996,7 +41996,7 @@
         <v>0.5453968253968254</v>
       </c>
       <c r="K291" t="n">
-        <v>0.7200562487191551</v>
+        <v>0.7200562487191562</v>
       </c>
       <c r="L291" t="n">
         <v>3.5254237288135593</v>
@@ -42133,7 +42133,7 @@
         <v>0.5151515151515151</v>
       </c>
       <c r="K292" t="n">
-        <v>0.7204348544233162</v>
+        <v>0.7204348544233163</v>
       </c>
       <c r="L292" t="n">
         <v>3.217391304347826</v>
@@ -42270,7 +42270,7 @@
         <v>0.5578703703703702</v>
       </c>
       <c r="K293" t="n">
-        <v>0.5376470418813522</v>
+        <v>0.537647041881352</v>
       </c>
       <c r="L293" t="n">
         <v>3.5319148936170213</v>
@@ -42407,7 +42407,7 @@
         <v>0.5950413223140496</v>
       </c>
       <c r="K294" t="n">
-        <v>0.7636558774525607</v>
+        <v>0.7636558774525608</v>
       </c>
       <c r="L294" t="n">
         <v>3.5384615384615383</v>
@@ -42536,7 +42536,7 @@
         <v>0.6030245746691871</v>
       </c>
       <c r="K295" t="n">
-        <v>0.7255496218640075</v>
+        <v>0.725549621864008</v>
       </c>
       <c r="L295" t="n">
         <v>2.365079365079365</v>
@@ -42665,7 +42665,7 @@
         <v>0.5743944636678201</v>
       </c>
       <c r="K296" t="n">
-        <v>0.6684707170940074</v>
+        <v>0.668470717094008</v>
       </c>
       <c r="L296" t="n">
         <v>1.7142857142857142</v>
@@ -42794,7 +42794,7 @@
         <v>0.540495867768595</v>
       </c>
       <c r="K297" t="n">
-        <v>0.7194489972394089</v>
+        <v>0.719448997239409</v>
       </c>
       <c r="L297" t="n">
         <v>1.4210526315789473</v>
@@ -42923,7 +42923,7 @@
         <v>0.6136528685548294</v>
       </c>
       <c r="K298" t="n">
-        <v>0.6638037066181902</v>
+        <v>0.6638037066181908</v>
       </c>
       <c r="L298" t="n">
         <v>1.4</v>
@@ -43060,7 +43060,7 @@
         <v>0.6043956043956044</v>
       </c>
       <c r="K299" t="n">
-        <v>0.6192501947457054</v>
+        <v>0.6192501947457051</v>
       </c>
       <c r="L299" t="n">
         <v>1.588235294117647</v>
@@ -43189,7 +43189,7 @@
         <v>0.5466666666666666</v>
       </c>
       <c r="K300" t="n">
-        <v>0.6768721242021913</v>
+        <v>0.6768721242021917</v>
       </c>
       <c r="L300" t="n">
         <v>2.6666666666666665</v>
@@ -43463,7 +43463,7 @@
         <v>0.5621301775147929</v>
       </c>
       <c r="K302" t="n">
-        <v>0.6111111111111115</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L302" t="n">
         <v>1.8571428571428572</v>
@@ -43737,7 +43737,7 @@
         <v>0.2672583826429979</v>
       </c>
       <c r="K304" t="n">
-        <v>0.4650313310827599</v>
+        <v>0.46503133108276024</v>
       </c>
       <c r="L304" t="n">
         <v>5.319587628865979</v>
@@ -43995,7 +43995,7 @@
         <v>0.5177335640138409</v>
       </c>
       <c r="K306" t="n">
-        <v>0.7073807095794549</v>
+        <v>0.7073807095794546</v>
       </c>
       <c r="L306" t="n">
         <v>3.3846153846153846</v>
@@ -44124,7 +44124,7 @@
         <v>0.5365079365079365</v>
       </c>
       <c r="K307" t="n">
-        <v>0.6290211899793112</v>
+        <v>0.6290211899793111</v>
       </c>
       <c r="L307" t="n">
         <v>3.5789473684210527</v>
@@ -44261,7 +44261,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K308" t="n">
-        <v>0.7670059672747956</v>
+        <v>0.7670059672747958</v>
       </c>
       <c r="L308" t="n">
         <v>1.9523809523809523</v>
@@ -44390,7 +44390,7 @@
         <v>0.2923585950080515</v>
       </c>
       <c r="K309" t="n">
-        <v>0.736600684671226</v>
+        <v>0.7366006846712265</v>
       </c>
       <c r="L309" t="n">
         <v>5.32319391634981</v>
@@ -44527,7 +44527,7 @@
         <v>0.5997395833333333</v>
       </c>
       <c r="K310" t="n">
-        <v>0.6964745865440547</v>
+        <v>0.6964745865440545</v>
       </c>
       <c r="L310" t="n">
         <v>1.90625</v>
@@ -44930,7 +44930,7 @@
         <v>0.5047619047619047</v>
       </c>
       <c r="K313" t="n">
-        <v>0.6568028603790267</v>
+        <v>0.6568028603790265</v>
       </c>
       <c r="L313" t="n">
         <v>1.836734693877551</v>
@@ -45059,7 +45059,7 @@
         <v>0.5575520833333333</v>
       </c>
       <c r="K314" t="n">
-        <v>0.7219433793087963</v>
+        <v>0.7219433793087966</v>
       </c>
       <c r="L314" t="n">
         <v>2.0</v>
@@ -45188,7 +45188,7 @@
         <v>0.5039246467817896</v>
       </c>
       <c r="K315" t="n">
-        <v>0.7716570891889998</v>
+        <v>0.7716570891890003</v>
       </c>
       <c r="L315" t="n">
         <v>3.727272727272727</v>
@@ -45325,7 +45325,7 @@
         <v>0.5643642072213501</v>
       </c>
       <c r="K316" t="n">
-        <v>0.7658848514477264</v>
+        <v>0.7658848514477263</v>
       </c>
       <c r="L316" t="n">
         <v>1.6388888888888888</v>
@@ -45462,7 +45462,7 @@
         <v>0.4679930795847751</v>
       </c>
       <c r="K317" t="n">
-        <v>0.634190019720194</v>
+        <v>0.6341900197201944</v>
       </c>
       <c r="L317" t="n">
         <v>1.631578947368421</v>
@@ -45728,7 +45728,7 @@
         <v>0.32007575757575757</v>
       </c>
       <c r="K319" t="n">
-        <v>0.5575331000518123</v>
+        <v>0.5575331000518124</v>
       </c>
       <c r="L319" t="n">
         <v>2.3157894736842106</v>
@@ -45865,7 +45865,7 @@
         <v>0.6203155818540433</v>
       </c>
       <c r="K320" t="n">
-        <v>0.7838946728446444</v>
+        <v>0.7838946728446442</v>
       </c>
       <c r="L320" t="n">
         <v>2.5161290322580645</v>
@@ -46002,7 +46002,7 @@
         <v>0.11589402355792013</v>
       </c>
       <c r="K321" t="n">
-        <v>0.4324999137084158</v>
+        <v>0.43249991370841584</v>
       </c>
       <c r="L321" t="n">
         <v>4.375722543352601</v>
@@ -46266,7 +46266,7 @@
         <v>0.500865051903114</v>
       </c>
       <c r="K323" t="n">
-        <v>0.6543696995514865</v>
+        <v>0.6543696995514874</v>
       </c>
       <c r="L323" t="n">
         <v>2.546875</v>
@@ -46395,7 +46395,7 @@
         <v>0.5321969696969697</v>
       </c>
       <c r="K324" t="n">
-        <v>0.7051532762746359</v>
+        <v>0.7051532762746364</v>
       </c>
       <c r="L324" t="n">
         <v>1.6857142857142857</v>
@@ -46532,7 +46532,7 @@
         <v>0.46044936903662664</v>
       </c>
       <c r="K325" t="n">
-        <v>0.7031830653922928</v>
+        <v>0.7031830653922929</v>
       </c>
       <c r="L325" t="n">
         <v>4.101351351351352</v>
@@ -46661,7 +46661,7 @@
         <v>0.706828885400314</v>
       </c>
       <c r="K326" t="n">
-        <v>0.7465589852152265</v>
+        <v>0.7465589852152266</v>
       </c>
       <c r="L326" t="n">
         <v>1.625</v>
@@ -46798,7 +46798,7 @@
         <v>0.6554160125588697</v>
       </c>
       <c r="K327" t="n">
-        <v>0.7781497533091721</v>
+        <v>0.7781497533091722</v>
       </c>
       <c r="L327" t="n">
         <v>3.1346153846153846</v>
@@ -46935,7 +46935,7 @@
         <v>0.41738754325259514</v>
       </c>
       <c r="K328" t="n">
-        <v>0.5932868346495673</v>
+        <v>0.5932868346495674</v>
       </c>
       <c r="L328" t="n">
         <v>2.586206896551724</v>
@@ -47072,7 +47072,7 @@
         <v>0.6214876033057851</v>
       </c>
       <c r="K329" t="n">
-        <v>0.6848446400614067</v>
+        <v>0.6848446400614069</v>
       </c>
       <c r="L329" t="n">
         <v>1.5217391304347827</v>
@@ -47201,7 +47201,7 @@
         <v>0.42003367003367</v>
       </c>
       <c r="K330" t="n">
-        <v>0.5586914518729813</v>
+        <v>0.5586914518729811</v>
       </c>
       <c r="L330" t="n">
         <v>2.1846153846153844</v>
@@ -47459,7 +47459,7 @@
         <v>0.6067503924646782</v>
       </c>
       <c r="K332" t="n">
-        <v>0.7605622429272173</v>
+        <v>0.760562242927217</v>
       </c>
       <c r="L332" t="n">
         <v>1.9565217391304348</v>
@@ -47588,7 +47588,7 @@
         <v>0.7095761381475667</v>
       </c>
       <c r="K333" t="n">
-        <v>0.6406033454421222</v>
+        <v>0.640603345442122</v>
       </c>
       <c r="L333" t="n">
         <v>2.4693877551020407</v>
@@ -47862,7 +47862,7 @@
         <v>0.4832347140039448</v>
       </c>
       <c r="K335" t="n">
-        <v>0.7323990412506672</v>
+        <v>0.7323990412506666</v>
       </c>
       <c r="L335" t="n">
         <v>2.4464285714285716</v>
@@ -47999,7 +47999,7 @@
         <v>0.6883830455259027</v>
       </c>
       <c r="K336" t="n">
-        <v>0.7670059672747958</v>
+        <v>0.7670059672747954</v>
       </c>
       <c r="L336" t="n">
         <v>2.289473684210526</v>
@@ -48136,7 +48136,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K337" t="n">
-        <v>0.7107858251581544</v>
+        <v>0.7107858251581547</v>
       </c>
       <c r="L337" t="n">
         <v>2.1739130434782608</v>
@@ -48265,7 +48265,7 @@
         <v>0.5986159169550173</v>
       </c>
       <c r="K338" t="n">
-        <v>0.6677393407133921</v>
+        <v>0.667739340713392</v>
       </c>
       <c r="L338" t="n">
         <v>2.617021276595745</v>
@@ -48402,7 +48402,7 @@
         <v>0.6125360964837778</v>
       </c>
       <c r="K339" t="n">
-        <v>0.814960567466817</v>
+        <v>0.8149605674668171</v>
       </c>
       <c r="L339" t="n">
         <v>2.1192660550458715</v>
@@ -48539,7 +48539,7 @@
         <v>0.5255208333333333</v>
       </c>
       <c r="K340" t="n">
-        <v>0.6775443814180119</v>
+        <v>0.6775443814180117</v>
       </c>
       <c r="L340" t="n">
         <v>2.051282051282051</v>
@@ -48676,7 +48676,7 @@
         <v>0.6372549019607843</v>
       </c>
       <c r="K341" t="n">
-        <v>0.665170600688054</v>
+        <v>0.6651706006880539</v>
       </c>
       <c r="L341" t="n">
         <v>1.6666666666666667</v>
@@ -48813,7 +48813,7 @@
         <v>0.41983471074380163</v>
       </c>
       <c r="K342" t="n">
-        <v>0.5471466884461431</v>
+        <v>0.5471466884461437</v>
       </c>
       <c r="L342" t="n">
         <v>2.6551724137931036</v>
@@ -48950,7 +48950,7 @@
         <v>0.5374753451676528</v>
       </c>
       <c r="K343" t="n">
-        <v>0.6553268404232162</v>
+        <v>0.6553268404232175</v>
       </c>
       <c r="L343" t="n">
         <v>1.7954545454545454</v>
@@ -49208,7 +49208,7 @@
         <v>0.5670445956160242</v>
       </c>
       <c r="K345" t="n">
-        <v>0.7520380747830206</v>
+        <v>0.7520380747830198</v>
       </c>
       <c r="L345" t="n">
         <v>2.8666666666666667</v>
@@ -49474,7 +49474,7 @@
         <v>0.25570586820586816</v>
       </c>
       <c r="K347" t="n">
-        <v>0.3337674828751597</v>
+        <v>0.3337674828751594</v>
       </c>
       <c r="L347" t="n">
         <v>3.0357142857142856</v>
@@ -49611,7 +49611,7 @@
         <v>0.5287247474747475</v>
       </c>
       <c r="K348" t="n">
-        <v>0.5993049402869346</v>
+        <v>0.5993049402869347</v>
       </c>
       <c r="L348" t="n">
         <v>3.611111111111111</v>
@@ -49748,7 +49748,7 @@
         <v>0.5166666666666667</v>
       </c>
       <c r="K349" t="n">
-        <v>0.6361776167253992</v>
+        <v>0.636177616725399</v>
       </c>
       <c r="L349" t="n">
         <v>1.4</v>
@@ -49885,7 +49885,7 @@
         <v>0.5096153846153846</v>
       </c>
       <c r="K350" t="n">
-        <v>0.6908948344366228</v>
+        <v>0.6908948344366224</v>
       </c>
       <c r="L350" t="n">
         <v>1.625</v>
@@ -50022,7 +50022,7 @@
         <v>0.4359375</v>
       </c>
       <c r="K351" t="n">
-        <v>0.6796519675925625</v>
+        <v>0.6796519675925623</v>
       </c>
       <c r="L351" t="n">
         <v>1.7435897435897436</v>
@@ -50159,7 +50159,7 @@
         <v>0.7508650519031141</v>
       </c>
       <c r="K352" t="n">
-        <v>0.7559749739472221</v>
+        <v>0.7559749739472219</v>
       </c>
       <c r="L352" t="n">
         <v>3.4107142857142856</v>
@@ -50296,7 +50296,7 @@
         <v>0.616370808678501</v>
       </c>
       <c r="K353" t="n">
-        <v>0.7280452596986557</v>
+        <v>0.7280452596986553</v>
       </c>
       <c r="L353" t="n">
         <v>1.5454545454545454</v>
@@ -50433,7 +50433,7 @@
         <v>0.5925925925925926</v>
       </c>
       <c r="K354" t="n">
-        <v>0.5242080512939442</v>
+        <v>0.5242080512939439</v>
       </c>
       <c r="L354" t="n">
         <v>2.4074074074074074</v>
@@ -50570,7 +50570,7 @@
         <v>0.5545729402872259</v>
       </c>
       <c r="K355" t="n">
-        <v>0.7850146706758381</v>
+        <v>0.7850146706758383</v>
       </c>
       <c r="L355" t="n">
         <v>3.338235294117647</v>
@@ -50699,7 +50699,7 @@
         <v>0.6009440813362382</v>
       </c>
       <c r="K356" t="n">
-        <v>0.638930214217233</v>
+        <v>0.6389302142172325</v>
       </c>
       <c r="L356" t="n">
         <v>2.9714285714285715</v>
@@ -50836,7 +50836,7 @@
         <v>0.4217171717171717</v>
       </c>
       <c r="K357" t="n">
-        <v>0.6031244934979116</v>
+        <v>0.6031244934979115</v>
       </c>
       <c r="L357" t="n">
         <v>2.1714285714285713</v>
@@ -50965,7 +50965,7 @@
         <v>0.6216412490922295</v>
       </c>
       <c r="K358" t="n">
-        <v>0.6548896519663269</v>
+        <v>0.6548896519663271</v>
       </c>
       <c r="L358" t="n">
         <v>5.052083333333333</v>
@@ -51102,7 +51102,7 @@
         <v>0.620242214532872</v>
       </c>
       <c r="K359" t="n">
-        <v>0.6839268025096327</v>
+        <v>0.6839268025096328</v>
       </c>
       <c r="L359" t="n">
         <v>1.4482758620689655</v>
@@ -51231,7 +51231,7 @@
         <v>0.6185243328100472</v>
       </c>
       <c r="K360" t="n">
-        <v>0.6780697258712605</v>
+        <v>0.6780697258712606</v>
       </c>
       <c r="L360" t="n">
         <v>2.25531914893617</v>
@@ -51630,7 +51630,7 @@
         <v>0.5621708850008494</v>
       </c>
       <c r="K363" t="n">
-        <v>0.7230622796066134</v>
+        <v>0.7230622796066136</v>
       </c>
       <c r="L363" t="n">
         <v>4.60655737704918</v>
@@ -51759,7 +51759,7 @@
         <v>0.6647923875432526</v>
       </c>
       <c r="K364" t="n">
-        <v>0.7428558024054928</v>
+        <v>0.7428558024054926</v>
       </c>
       <c r="L364" t="n">
         <v>1.71875</v>
@@ -51896,7 +51896,7 @@
         <v>0.5051903114186851</v>
       </c>
       <c r="K365" t="n">
-        <v>0.4687389409887651</v>
+        <v>0.4687389409887647</v>
       </c>
       <c r="L365" t="n">
         <v>3.2363636363636363</v>
@@ -52033,7 +52033,7 @@
         <v>0.4677685950413223</v>
       </c>
       <c r="K366" t="n">
-        <v>0.636334646048831</v>
+        <v>0.6363346460488309</v>
       </c>
       <c r="L366" t="n">
         <v>1.7058823529411764</v>
@@ -52162,7 +52162,7 @@
         <v>0.6254325259515571</v>
       </c>
       <c r="K367" t="n">
-        <v>0.8167107515573925</v>
+        <v>0.8167107515573927</v>
       </c>
       <c r="L367" t="n">
         <v>2.119047619047619</v>
@@ -52299,7 +52299,7 @@
         <v>0.6088888888888889</v>
       </c>
       <c r="K368" t="n">
-        <v>0.6533878071413061</v>
+        <v>0.6533878071413056</v>
       </c>
       <c r="L368" t="n">
         <v>3.090909090909091</v>
@@ -52436,7 +52436,7 @@
         <v>0.5753532182103611</v>
       </c>
       <c r="K369" t="n">
-        <v>0.659982426315781</v>
+        <v>0.6599824263157807</v>
       </c>
       <c r="L369" t="n">
         <v>3.727272727272727</v>
@@ -52706,7 +52706,7 @@
         <v>0.6351084812623274</v>
       </c>
       <c r="K371" t="n">
-        <v>0.6921410326398417</v>
+        <v>0.6921410326398418</v>
       </c>
       <c r="L371" t="n">
         <v>3.7857142857142856</v>
@@ -52833,7 +52833,7 @@
         <v>0.7209595959595959</v>
       </c>
       <c r="K372" t="n">
-        <v>0.7539578260896124</v>
+        <v>0.7539578260896125</v>
       </c>
       <c r="L372" t="n">
         <v>2.375</v>
@@ -52970,7 +52970,7 @@
         <v>0.5453648915187377</v>
       </c>
       <c r="K373" t="n">
-        <v>0.5729944499546028</v>
+        <v>0.5729944499546029</v>
       </c>
       <c r="L373" t="n">
         <v>2.28125</v>
@@ -53099,7 +53099,7 @@
         <v>0.5820707070707071</v>
       </c>
       <c r="K374" t="n">
-        <v>0.6749707165392155</v>
+        <v>0.6749707165392151</v>
       </c>
       <c r="L374" t="n">
         <v>2.269230769230769</v>
@@ -53236,7 +53236,7 @@
         <v>0.5877712031558185</v>
       </c>
       <c r="K375" t="n">
-        <v>0.6552051453440119</v>
+        <v>0.6552051453440118</v>
       </c>
       <c r="L375" t="n">
         <v>3.8541666666666665</v>
@@ -53373,7 +53373,7 @@
         <v>0.33671875</v>
       </c>
       <c r="K376" t="n">
-        <v>0.5560727419843985</v>
+        <v>0.5560727419843988</v>
       </c>
       <c r="L376" t="n">
         <v>1.9056603773584906</v>
@@ -53502,7 +53502,7 @@
         <v>0.6043956043956044</v>
       </c>
       <c r="K377" t="n">
-        <v>0.619250194745705</v>
+        <v>0.6192501947457056</v>
       </c>
       <c r="L377" t="n">
         <v>1.4615384615384615</v>
@@ -53639,7 +53639,7 @@
         <v>0.591715976331361</v>
       </c>
       <c r="K378" t="n">
-        <v>0.7009578627995707</v>
+        <v>0.7009578627995703</v>
       </c>
       <c r="L378" t="n">
         <v>2.4166666666666665</v>
@@ -53776,7 +53776,7 @@
         <v>0.39173553719008264</v>
       </c>
       <c r="K379" t="n">
-        <v>0.6383479422507056</v>
+        <v>0.6383479422507057</v>
       </c>
       <c r="L379" t="n">
         <v>2.933333333333333</v>
@@ -53905,7 +53905,7 @@
         <v>0.6125</v>
       </c>
       <c r="K380" t="n">
-        <v>0.6382203233266488</v>
+        <v>0.6382203233266482</v>
       </c>
       <c r="L380" t="n">
         <v>1.746031746031746</v>
@@ -54042,7 +54042,7 @@
         <v>0.28479709473694903</v>
       </c>
       <c r="K381" t="n">
-        <v>0.6055530991185532</v>
+        <v>0.6055530991185528</v>
       </c>
       <c r="L381" t="n">
         <v>4.278884462151394</v>
@@ -54171,7 +54171,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K382" t="n">
-        <v>0.7503994041344019</v>
+        <v>0.7503994041344022</v>
       </c>
       <c r="L382" t="n">
         <v>1.5714285714285714</v>
@@ -54300,7 +54300,7 @@
         <v>0.5694444444444444</v>
       </c>
       <c r="K383" t="n">
-        <v>0.7295283117584032</v>
+        <v>0.7295283117584028</v>
       </c>
       <c r="L383" t="n">
         <v>1.8636363636363635</v>
@@ -54429,7 +54429,7 @@
         <v>0.44666666666666666</v>
       </c>
       <c r="K384" t="n">
-        <v>0.513879872309993</v>
+        <v>0.5138798723099927</v>
       </c>
       <c r="L384" t="n">
         <v>1.72</v>
@@ -54566,7 +54566,7 @@
         <v>0.46745562130177515</v>
       </c>
       <c r="K385" t="n">
-        <v>0.591448172195166</v>
+        <v>0.5914481721951658</v>
       </c>
       <c r="L385" t="n">
         <v>3.150943396226415</v>
@@ -54695,7 +54695,7 @@
         <v>0.4478021978021978</v>
       </c>
       <c r="K386" t="n">
-        <v>0.6651282312391138</v>
+        <v>0.6651282312391136</v>
       </c>
       <c r="L386" t="n">
         <v>2.14</v>
@@ -54824,7 +54824,7 @@
         <v>0.40927021696252464</v>
       </c>
       <c r="K387" t="n">
-        <v>0.5555541941161154</v>
+        <v>0.5555541941161156</v>
       </c>
       <c r="L387" t="n">
         <v>2.0</v>
@@ -54953,7 +54953,7 @@
         <v>0.3356930337539757</v>
       </c>
       <c r="K388" t="n">
-        <v>0.5814406886847637</v>
+        <v>0.5814406886847636</v>
       </c>
       <c r="L388" t="n">
         <v>5.069230769230769</v>
@@ -55090,7 +55090,7 @@
         <v>0.5808080808080808</v>
       </c>
       <c r="K389" t="n">
-        <v>0.6896139328800204</v>
+        <v>0.6896139328800205</v>
       </c>
       <c r="L389" t="n">
         <v>1.0</v>
@@ -55227,7 +55227,7 @@
         <v>0.6076190476190476</v>
       </c>
       <c r="K390" t="n">
-        <v>0.6997447656887495</v>
+        <v>0.6997447656887504</v>
       </c>
       <c r="L390" t="n">
         <v>1.2222222222222223</v>
@@ -55356,7 +55356,7 @@
         <v>0.653968253968254</v>
       </c>
       <c r="K391" t="n">
-        <v>0.7273681331479637</v>
+        <v>0.7273681331479634</v>
       </c>
       <c r="L391" t="n">
         <v>3.4705882352941178</v>
@@ -55493,7 +55493,7 @@
         <v>0.6059654631083202</v>
       </c>
       <c r="K392" t="n">
-        <v>0.7023888300243785</v>
+        <v>0.7023888300243784</v>
       </c>
       <c r="L392" t="n">
         <v>2.6206896551724137</v>
@@ -55630,7 +55630,7 @@
         <v>0.5277777777777778</v>
       </c>
       <c r="K393" t="n">
-        <v>0.5497246451155324</v>
+        <v>0.5497246451155325</v>
       </c>
       <c r="L393" t="n">
         <v>1.1875</v>
@@ -55896,7 +55896,7 @@
         <v>0.5542929292929293</v>
       </c>
       <c r="K395" t="n">
-        <v>0.7437212953676031</v>
+        <v>0.7437212953676028</v>
       </c>
       <c r="L395" t="n">
         <v>1.8518518518518519</v>
@@ -56025,7 +56025,7 @@
         <v>0.6785009861932939</v>
       </c>
       <c r="K396" t="n">
-        <v>0.7872163097076945</v>
+        <v>0.7872163097076946</v>
       </c>
       <c r="L396" t="n">
         <v>1.4782608695652173</v>
@@ -56154,7 +56154,7 @@
         <v>0.6033057851239669</v>
       </c>
       <c r="K397" t="n">
-        <v>0.7286742057325314</v>
+        <v>0.7286742057325312</v>
       </c>
       <c r="L397" t="n">
         <v>1.5238095238095237</v>
@@ -56291,7 +56291,7 @@
         <v>0.6484375</v>
       </c>
       <c r="K398" t="n">
-        <v>0.667596046705959</v>
+        <v>0.6675960467059588</v>
       </c>
       <c r="L398" t="n">
         <v>3.5483870967741935</v>
@@ -56428,7 +56428,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K399" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535706</v>
       </c>
       <c r="L399" t="n">
         <v>1.4</v>
@@ -56557,7 +56557,7 @@
         <v>0.6607495069033531</v>
       </c>
       <c r="K400" t="n">
-        <v>0.7107858251581546</v>
+        <v>0.7107858251581547</v>
       </c>
       <c r="L400" t="n">
         <v>1.7692307692307692</v>
@@ -56686,7 +56686,7 @@
         <v>0.6256354393609296</v>
       </c>
       <c r="K401" t="n">
-        <v>0.7750910953322777</v>
+        <v>0.7750910953322778</v>
       </c>
       <c r="L401" t="n">
         <v>1.8545454545454545</v>
@@ -56815,7 +56815,7 @@
         <v>0.5498737373737373</v>
       </c>
       <c r="K402" t="n">
-        <v>0.5921570582603478</v>
+        <v>0.5921570582603477</v>
       </c>
       <c r="L402" t="n">
         <v>1.6153846153846154</v>
@@ -56952,7 +56952,7 @@
         <v>0.6400394477317555</v>
       </c>
       <c r="K403" t="n">
-        <v>0.7085243743539137</v>
+        <v>0.7085243743539135</v>
       </c>
       <c r="L403" t="n">
         <v>2.230769230769231</v>
@@ -57218,7 +57218,7 @@
         <v>0.41020408163265304</v>
       </c>
       <c r="K405" t="n">
-        <v>0.6511862544504621</v>
+        <v>0.6511862544504599</v>
       </c>
       <c r="L405" t="n">
         <v>3.619047619047619</v>
@@ -57355,7 +57355,7 @@
         <v>0.543171114599686</v>
       </c>
       <c r="K406" t="n">
-        <v>0.6153114420716119</v>
+        <v>0.6153114420716121</v>
       </c>
       <c r="L406" t="n">
         <v>3.0</v>
@@ -57492,7 +57492,7 @@
         <v>0.48547979797979796</v>
       </c>
       <c r="K407" t="n">
-        <v>0.6210125873430763</v>
+        <v>0.6210125873430766</v>
       </c>
       <c r="L407" t="n">
         <v>3.2790697674418605</v>
@@ -57629,7 +57629,7 @@
         <v>0.5887573964497042</v>
       </c>
       <c r="K408" t="n">
-        <v>0.6599557056359687</v>
+        <v>0.6599557056359693</v>
       </c>
       <c r="L408" t="n">
         <v>1.6774193548387097</v>
@@ -57766,7 +57766,7 @@
         <v>0.7000726216412491</v>
       </c>
       <c r="K409" t="n">
-        <v>0.7917764071627923</v>
+        <v>0.7917764071627924</v>
       </c>
       <c r="L409" t="n">
         <v>2.176470588235294</v>
@@ -57903,7 +57903,7 @@
         <v>0.4939682539682539</v>
       </c>
       <c r="K410" t="n">
-        <v>0.6190775915470377</v>
+        <v>0.6190775915470381</v>
       </c>
       <c r="L410" t="n">
         <v>5.948717948717949</v>
@@ -58040,7 +58040,7 @@
         <v>0.6457142857142857</v>
       </c>
       <c r="K411" t="n">
-        <v>0.638665427269645</v>
+        <v>0.6386654272696453</v>
       </c>
       <c r="L411" t="n">
         <v>1.9807692307692308</v>
@@ -58314,7 +58314,7 @@
         <v>0.47534516765285995</v>
       </c>
       <c r="K413" t="n">
-        <v>0.5801949258430953</v>
+        <v>0.5801949258430951</v>
       </c>
       <c r="L413" t="n">
         <v>2.5</v>
@@ -58723,7 +58723,7 @@
         <v>0.5703125</v>
       </c>
       <c r="K416" t="n">
-        <v>0.7124215353634707</v>
+        <v>0.7124215353634711</v>
       </c>
       <c r="L416" t="n">
         <v>3.7413793103448274</v>
@@ -58860,7 +58860,7 @@
         <v>0.727810650887574</v>
       </c>
       <c r="K417" t="n">
-        <v>0.7451447138637768</v>
+        <v>0.7451447138637765</v>
       </c>
       <c r="L417" t="n">
         <v>4.029411764705882</v>
@@ -58997,7 +58997,7 @@
         <v>0.6229166666666667</v>
       </c>
       <c r="K418" t="n">
-        <v>0.6444444444444447</v>
+        <v>0.6444444444444443</v>
       </c>
       <c r="L418" t="n">
         <v>2.186046511627907</v>
@@ -59134,7 +59134,7 @@
         <v>0.6400394477317555</v>
       </c>
       <c r="K419" t="n">
-        <v>0.7085243743539138</v>
+        <v>0.7085243743539135</v>
       </c>
       <c r="L419" t="n">
         <v>1.6176470588235294</v>
@@ -59271,7 +59271,7 @@
         <v>0.6057142857142858</v>
       </c>
       <c r="K420" t="n">
-        <v>0.6792023205240191</v>
+        <v>0.6792023205240193</v>
       </c>
       <c r="L420" t="n">
         <v>1.9795918367346939</v>
@@ -59408,7 +59408,7 @@
         <v>0.5795454545454546</v>
       </c>
       <c r="K421" t="n">
-        <v>0.5876751203535705</v>
+        <v>0.5876751203535702</v>
       </c>
       <c r="L421" t="n">
         <v>1.5714285714285714</v>
@@ -59545,7 +59545,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K422" t="n">
-        <v>0.7503994041344025</v>
+        <v>0.7503994041344023</v>
       </c>
       <c r="L422" t="n">
         <v>1.6</v>
@@ -59682,7 +59682,7 @@
         <v>0.48226643598615915</v>
       </c>
       <c r="K423" t="n">
-        <v>0.6684156331758155</v>
+        <v>0.6684156331758152</v>
       </c>
       <c r="L423" t="n">
         <v>1.7272727272727273</v>
@@ -59956,7 +59956,7 @@
         <v>0.6459968602825745</v>
       </c>
       <c r="K425" t="n">
-        <v>0.6582883858330054</v>
+        <v>0.6582883858330052</v>
       </c>
       <c r="L425" t="n">
         <v>1.6129032258064515</v>
@@ -60093,7 +60093,7 @@
         <v>0.7256671899529042</v>
       </c>
       <c r="K426" t="n">
-        <v>0.6975176159222343</v>
+        <v>0.6975176159222342</v>
       </c>
       <c r="L426" t="n">
         <v>1.56</v>
@@ -60504,7 +60504,7 @@
         <v>0.5996055226824457</v>
       </c>
       <c r="K429" t="n">
-        <v>0.6337316859671392</v>
+        <v>0.633731685967139</v>
       </c>
       <c r="L429" t="n">
         <v>1.4166666666666667</v>
@@ -60641,7 +60641,7 @@
         <v>0.7034920634920635</v>
       </c>
       <c r="K430" t="n">
-        <v>0.7978526291134845</v>
+        <v>0.7978526291134841</v>
       </c>
       <c r="L430" t="n">
         <v>2.2</v>
@@ -60778,7 +60778,7 @@
         <v>0.8386678200692042</v>
       </c>
       <c r="K431" t="n">
-        <v>0.8259313085580422</v>
+        <v>0.8259313085580423</v>
       </c>
       <c r="L431" t="n">
         <v>1.706896551724138</v>
@@ -61052,7 +61052,7 @@
         <v>0.6805555555555556</v>
       </c>
       <c r="K433" t="n">
-        <v>0.7503994041344019</v>
+        <v>0.7503994041344021</v>
       </c>
       <c r="L433" t="n">
         <v>2.590909090909091</v>
@@ -61189,7 +61189,7 @@
         <v>0.4913657770800628</v>
       </c>
       <c r="K434" t="n">
-        <v>0.646661226435627</v>
+        <v>0.6466612264356271</v>
       </c>
       <c r="L434" t="n">
         <v>1.44</v>
@@ -61326,7 +61326,7 @@
         <v>0.645079365079365</v>
       </c>
       <c r="K435" t="n">
-        <v>0.6766073699035821</v>
+        <v>0.6766073699035827</v>
       </c>
       <c r="L435" t="n">
         <v>4.578947368421052</v>
